--- a/biology/Botanique/Mikaniopsis_maitlandii/Mikaniopsis_maitlandii.xlsx
+++ b/biology/Botanique/Mikaniopsis_maitlandii/Mikaniopsis_maitlandii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikaniopsis maitlandii C.D.Adams est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Mikaniopsis, présente en Afrique tropicale.
-Proche de Mikaniopsis tedliei (Oliv. &amp; Hiern) C.D.Adams et Mikaniopsis paniculata Milne-Redh., ce taxon n'en a été séparé par C. D. Adams qu'en 1957[2]. 
+Proche de Mikaniopsis tedliei (Oliv. &amp; Hiern) C.D.Adams et Mikaniopsis paniculata Milne-Redh., ce taxon n'en a été séparé par C. D. Adams qu'en 1957. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique maitlandii rend hommage au botaniste britannique Thomas Douglas Maitland qui collecta les premiers spécimens au Cameroun.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une liane herbacée grimpante[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une liane herbacée grimpante.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, vulnérable, l'espèce est présente au sud-ouest du Cameroun sur trois sites (mont Cameroun, monts Bakossi, mont Koupé), également au Nigeria (Chappal Waddi) et en Guinée équatoriale (Bioko[2]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, vulnérable, l'espèce est présente au sud-ouest du Cameroun sur trois sites (mont Cameroun, monts Bakossi, mont Koupé), également au Nigeria (Chappal Waddi) et en Guinée équatoriale (Bioko).
 </t>
         </is>
       </c>
